--- a/paintings_data.xlsx
+++ b/paintings_data.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tandanny/Desktop/java-courses/artist_project/artist_back_end/artist_back_end/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803A1721-8276-CC4B-BC78-E869EF407FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="528" windowWidth="21792" windowHeight="8796"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Actist" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="251">
   <si>
     <t>畫作名稱</t>
   </si>
@@ -632,13 +639,150 @@
   </si>
   <si>
     <t>https://uploads2.wikiart.org/images/mark-rothko/orange-and-yellow(1).jpg</t>
+  </si>
+  <si>
+    <t>Actist_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0002</t>
+  </si>
+  <si>
+    <t>A0003</t>
+  </si>
+  <si>
+    <t>A0004</t>
+  </si>
+  <si>
+    <t>A0005</t>
+  </si>
+  <si>
+    <t>A0006</t>
+  </si>
+  <si>
+    <t>A0007</t>
+  </si>
+  <si>
+    <t>A0008</t>
+  </si>
+  <si>
+    <t>A0009</t>
+  </si>
+  <si>
+    <t>A0010</t>
+  </si>
+  <si>
+    <t>A0011</t>
+  </si>
+  <si>
+    <t>A0012</t>
+  </si>
+  <si>
+    <t>A0013</t>
+  </si>
+  <si>
+    <t>A0014</t>
+  </si>
+  <si>
+    <t>A0015</t>
+  </si>
+  <si>
+    <t>A0016</t>
+  </si>
+  <si>
+    <t>A0017</t>
+  </si>
+  <si>
+    <t>A0018</t>
+  </si>
+  <si>
+    <t>A0019</t>
+  </si>
+  <si>
+    <t>A0020</t>
+  </si>
+  <si>
+    <t>A0021</t>
+  </si>
+  <si>
+    <t>A0022</t>
+  </si>
+  <si>
+    <t>A0023</t>
+  </si>
+  <si>
+    <t>A0024</t>
+  </si>
+  <si>
+    <t>A0025</t>
+  </si>
+  <si>
+    <t>A0026</t>
+  </si>
+  <si>
+    <t>A0027</t>
+  </si>
+  <si>
+    <t>A0028</t>
+  </si>
+  <si>
+    <t>A0029</t>
+  </si>
+  <si>
+    <t>A0030</t>
+  </si>
+  <si>
+    <t>A0031</t>
+  </si>
+  <si>
+    <t>A0032</t>
+  </si>
+  <si>
+    <t>A0033</t>
+  </si>
+  <si>
+    <t>A0034</t>
+  </si>
+  <si>
+    <t>A0035</t>
+  </si>
+  <si>
+    <t>A0036</t>
+  </si>
+  <si>
+    <t>A0037</t>
+  </si>
+  <si>
+    <t>A0038</t>
+  </si>
+  <si>
+    <t>A0039</t>
+  </si>
+  <si>
+    <t>A0040</t>
+  </si>
+  <si>
+    <t>A0041</t>
+  </si>
+  <si>
+    <t>A0042</t>
+  </si>
+  <si>
+    <t>A0043</t>
+  </si>
+  <si>
+    <t>A0044</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +854,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -999,22 +1146,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="85.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="177.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="158.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="177.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="158.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1112,7 +1259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +1287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1154,7 +1301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1168,7 +1315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1182,7 +1329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1196,7 +1343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1224,7 +1371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1238,7 +1385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1252,7 +1399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1266,7 +1413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1280,7 +1427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1294,7 +1441,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1308,7 +1455,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1322,7 +1469,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1336,7 +1483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1350,7 +1497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1364,7 +1511,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1378,7 +1525,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -1392,7 +1539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1406,7 +1553,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -1420,7 +1567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -1434,7 +1581,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -1448,7 +1595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -1462,7 +1609,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -1476,7 +1623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1490,7 +1637,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -1504,7 +1651,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -1518,7 +1665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -1532,7 +1679,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -1546,7 +1693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -1560,7 +1707,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -1574,7 +1721,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -1588,7 +1735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -1602,7 +1749,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -1616,7 +1763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -1630,7 +1777,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -1644,7 +1791,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -1658,7 +1805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>159</v>
       </c>
@@ -1672,7 +1819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -1686,7 +1833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -1700,7 +1847,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>167</v>
       </c>
@@ -1714,7 +1861,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -1728,7 +1875,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -1742,7 +1889,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -1756,7 +1903,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -1770,7 +1917,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>185</v>
       </c>
@@ -1784,7 +1931,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>188</v>
       </c>
@@ -1798,7 +1945,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>192</v>
       </c>
@@ -1812,7 +1959,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -1826,7 +1973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>196</v>
       </c>
@@ -1840,7 +1987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>198</v>
       </c>
@@ -1854,7 +2001,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -1873,4 +2020,383 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E27B8E-0EF2-2C44-A3EB-1FF36BA301A1}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="68.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/paintings_data.xlsx
+++ b/paintings_data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tandanny/Desktop/java-courses/artist_project/artist_back_end/artist_back_end/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803A1721-8276-CC4B-BC78-E869EF407FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8725CA1C-277D-7141-8EEE-4BBBEDB54BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Actist" sheetId="2" r:id="rId2"/>
+    <sheet name="picture" sheetId="3" r:id="rId2"/>
+    <sheet name="Actist" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="312">
   <si>
     <t>畫作名稱</t>
   </si>
@@ -776,6 +777,191 @@
   </si>
   <si>
     <t>A0044</t>
+  </si>
+  <si>
+    <t>Product_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>P022</t>
+  </si>
+  <si>
+    <t>P023</t>
+  </si>
+  <si>
+    <t>P024</t>
+  </si>
+  <si>
+    <t>P025</t>
+  </si>
+  <si>
+    <t>P026</t>
+  </si>
+  <si>
+    <t>P027</t>
+  </si>
+  <si>
+    <t>P028</t>
+  </si>
+  <si>
+    <t>P029</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>P031</t>
+  </si>
+  <si>
+    <t>P032</t>
+  </si>
+  <si>
+    <t>P033</t>
+  </si>
+  <si>
+    <t>P034</t>
+  </si>
+  <si>
+    <t>P035</t>
+  </si>
+  <si>
+    <t>P036</t>
+  </si>
+  <si>
+    <t>P037</t>
+  </si>
+  <si>
+    <t>P038</t>
+  </si>
+  <si>
+    <t>P039</t>
+  </si>
+  <si>
+    <t>P040</t>
+  </si>
+  <si>
+    <t>P041</t>
+  </si>
+  <si>
+    <t>P042</t>
+  </si>
+  <si>
+    <t>P043</t>
+  </si>
+  <si>
+    <t>P044</t>
+  </si>
+  <si>
+    <t>P045</t>
+  </si>
+  <si>
+    <t>P046</t>
+  </si>
+  <si>
+    <t>P047</t>
+  </si>
+  <si>
+    <t>P048</t>
+  </si>
+  <si>
+    <t>P049</t>
+  </si>
+  <si>
+    <t>P050</t>
+  </si>
+  <si>
+    <t>P051</t>
+  </si>
+  <si>
+    <t>P052</t>
+  </si>
+  <si>
+    <t>P053</t>
+  </si>
+  <si>
+    <t>P054</t>
+  </si>
+  <si>
+    <t>P055</t>
+  </si>
+  <si>
+    <t>P056</t>
+  </si>
+  <si>
+    <t>P057</t>
+  </si>
+  <si>
+    <t>P058</t>
+  </si>
+  <si>
+    <t>P059</t>
+  </si>
+  <si>
+    <t>P060</t>
   </si>
 </sst>
 </file>
@@ -1147,871 +1333,1055 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="85.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="177.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="158.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="177.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="158.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>75</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>82</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" t="s">
         <v>91</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>92</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" t="s">
         <v>94</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>103</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>106</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>107</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>111</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" t="s">
         <v>113</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" t="s">
         <v>116</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" t="s">
         <v>119</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>120</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" t="s">
         <v>123</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>124</v>
       </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>129</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>130</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" t="s">
         <v>132</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>133</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>134</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" t="s">
         <v>136</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>137</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" t="s">
         <v>139</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>140</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" t="s">
         <v>142</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>143</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" t="s">
         <v>145</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>146</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>147</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" t="s">
         <v>149</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>151</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" t="s">
         <v>153</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>154</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>155</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" t="s">
         <v>157</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>158</v>
       </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" t="s">
         <v>159</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>160</v>
       </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" t="s">
         <v>161</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>162</v>
       </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" t="s">
         <v>163</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>164</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>165</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" t="s">
         <v>167</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>168</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>169</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
         <v>171</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>172</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>173</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" t="s">
         <v>175</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>63</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>176</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" t="s">
         <v>178</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>179</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>180</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
+        <v>304</v>
+      </c>
+      <c r="B54" t="s">
         <v>182</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>124</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>183</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" t="s">
         <v>185</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>17</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>186</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" t="s">
         <v>188</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>189</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>190</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" t="s">
         <v>192</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>63</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>193</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" t="s">
         <v>119</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>195</v>
       </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" t="s">
         <v>196</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>197</v>
       </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
         <v>198</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>199</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>200</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61" t="s">
         <v>202</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>203</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>204</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2023,6 +2393,698 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A20C9F-3838-5C45-BE7E-D2932B82D090}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="9"/>
+    <col min="2" max="2" width="177.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="158.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>304</v>
+      </c>
+      <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E27B8E-0EF2-2C44-A3EB-1FF36BA301A1}">
   <dimension ref="A1:B45"/>
   <sheetViews>

--- a/paintings_data.xlsx
+++ b/paintings_data.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tandanny/Desktop/java-courses/artist_project/artist_back_end/artist_back_end/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8725CA1C-277D-7141-8EEE-4BBBEDB54BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2A057-B47E-ED4B-B959-23E18966C6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="picture" sheetId="3" r:id="rId2"/>
-    <sheet name="Actist" sheetId="2" r:id="rId3"/>
+    <sheet name="Actist" sheetId="2" r:id="rId2"/>
+    <sheet name="picture" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="314">
   <si>
     <t>畫作名稱</t>
   </si>
@@ -962,6 +975,13 @@
   </si>
   <si>
     <t>P060</t>
+  </si>
+  <si>
+    <t>A0001</t>
+  </si>
+  <si>
+    <t>作品數量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1333,22 +1353,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="177.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="158.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="68.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="177.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>251</v>
       </c>
@@ -1356,16 +1377,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -1373,16 +1397,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -1390,16 +1417,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -1407,16 +1437,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -1424,16 +1457,19 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -1441,16 +1477,19 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -1458,16 +1497,19 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -1475,16 +1517,19 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -1492,16 +1537,19 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -1509,16 +1557,19 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -1526,16 +1577,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -1543,16 +1597,19 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -1560,16 +1617,19 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -1577,16 +1637,19 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -1594,16 +1657,19 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -1611,16 +1677,19 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -1628,16 +1697,19 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>268</v>
       </c>
@@ -1645,16 +1717,19 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -1662,16 +1737,19 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -1679,16 +1757,19 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>271</v>
       </c>
@@ -1696,16 +1777,19 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>272</v>
       </c>
@@ -1713,16 +1797,19 @@
         <v>73</v>
       </c>
       <c r="C22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>273</v>
       </c>
@@ -1730,16 +1817,19 @@
         <v>77</v>
       </c>
       <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>78</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>274</v>
       </c>
@@ -1747,16 +1837,19 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" t="s">
         <v>81</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>82</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>275</v>
       </c>
@@ -1764,16 +1857,19 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>85</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>276</v>
       </c>
@@ -1781,16 +1877,19 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>89</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>277</v>
       </c>
@@ -1798,16 +1897,19 @@
         <v>91</v>
       </c>
       <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -1815,16 +1917,19 @@
         <v>94</v>
       </c>
       <c r="C28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>95</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>279</v>
       </c>
@@ -1832,16 +1937,19 @@
         <v>97</v>
       </c>
       <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>99</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -1849,16 +1957,19 @@
         <v>101</v>
       </c>
       <c r="C30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>103</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>281</v>
       </c>
@@ -1866,16 +1977,19 @@
         <v>105</v>
       </c>
       <c r="C31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" t="s">
         <v>106</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>107</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>282</v>
       </c>
@@ -1883,16 +1997,19 @@
         <v>109</v>
       </c>
       <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>111</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>283</v>
       </c>
@@ -1900,16 +2017,19 @@
         <v>113</v>
       </c>
       <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>114</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>284</v>
       </c>
@@ -1917,16 +2037,19 @@
         <v>116</v>
       </c>
       <c r="C34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>117</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>285</v>
       </c>
@@ -1934,16 +2057,19 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" t="s">
         <v>120</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>121</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>286</v>
       </c>
@@ -1951,16 +2077,19 @@
         <v>123</v>
       </c>
       <c r="C36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
       <c r="E36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>287</v>
       </c>
@@ -1968,16 +2097,19 @@
         <v>125</v>
       </c>
       <c r="C37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>126</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>288</v>
       </c>
@@ -1985,16 +2117,19 @@
         <v>128</v>
       </c>
       <c r="C38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" t="s">
         <v>129</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>130</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>289</v>
       </c>
@@ -2002,16 +2137,19 @@
         <v>132</v>
       </c>
       <c r="C39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" t="s">
         <v>133</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>134</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>290</v>
       </c>
@@ -2019,16 +2157,19 @@
         <v>136</v>
       </c>
       <c r="C40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>137</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>291</v>
       </c>
@@ -2036,16 +2177,19 @@
         <v>139</v>
       </c>
       <c r="C41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>140</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>292</v>
       </c>
@@ -2053,16 +2197,19 @@
         <v>142</v>
       </c>
       <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>143</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>293</v>
       </c>
@@ -2070,16 +2217,19 @@
         <v>145</v>
       </c>
       <c r="C43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" t="s">
         <v>146</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>147</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>294</v>
       </c>
@@ -2087,16 +2237,19 @@
         <v>149</v>
       </c>
       <c r="C44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" t="s">
         <v>150</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>151</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>295</v>
       </c>
@@ -2104,16 +2257,19 @@
         <v>153</v>
       </c>
       <c r="C45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>155</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>296</v>
       </c>
@@ -2121,16 +2277,19 @@
         <v>157</v>
       </c>
       <c r="C46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" t="s">
         <v>158</v>
       </c>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
       <c r="E46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>297</v>
       </c>
@@ -2138,16 +2297,19 @@
         <v>159</v>
       </c>
       <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
         <v>160</v>
       </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>298</v>
       </c>
@@ -2155,16 +2317,19 @@
         <v>161</v>
       </c>
       <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
         <v>162</v>
       </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
       <c r="E48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -2172,16 +2337,19 @@
         <v>163</v>
       </c>
       <c r="C49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" t="s">
         <v>164</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>165</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>300</v>
       </c>
@@ -2189,16 +2357,19 @@
         <v>167</v>
       </c>
       <c r="C50" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" t="s">
         <v>168</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>169</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -2206,16 +2377,19 @@
         <v>171</v>
       </c>
       <c r="C51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" t="s">
         <v>172</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>173</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>302</v>
       </c>
@@ -2223,16 +2397,19 @@
         <v>175</v>
       </c>
       <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" t="s">
         <v>63</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>176</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -2240,16 +2417,19 @@
         <v>178</v>
       </c>
       <c r="C53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" t="s">
         <v>179</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>180</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>304</v>
       </c>
@@ -2257,16 +2437,19 @@
         <v>182</v>
       </c>
       <c r="C54" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" t="s">
         <v>124</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>183</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>305</v>
       </c>
@@ -2274,16 +2457,19 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>186</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>306</v>
       </c>
@@ -2291,16 +2477,19 @@
         <v>188</v>
       </c>
       <c r="C56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" t="s">
         <v>189</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>190</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>307</v>
       </c>
@@ -2308,16 +2497,19 @@
         <v>192</v>
       </c>
       <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
         <v>63</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>193</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>308</v>
       </c>
@@ -2325,16 +2517,19 @@
         <v>119</v>
       </c>
       <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" t="s">
         <v>195</v>
       </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
       <c r="E58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>309</v>
       </c>
@@ -2342,16 +2537,19 @@
         <v>196</v>
       </c>
       <c r="C59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" t="s">
         <v>197</v>
       </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
       <c r="E59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>310</v>
       </c>
@@ -2359,16 +2557,19 @@
         <v>198</v>
       </c>
       <c r="C60" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" t="s">
         <v>199</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>200</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>311</v>
       </c>
@@ -2376,12 +2577,15 @@
         <v>202</v>
       </c>
       <c r="C61" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" t="s">
         <v>203</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>204</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2393,6 +2597,564 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E27B8E-0EF2-2C44-A3EB-1FF36BA301A1}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="68.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF(Sheet1!C:C,Actist!A2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF(Sheet1!C:C,Actist!A3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(Sheet1!C:C,Actist!A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(Sheet1!C:C,Actist!A5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(Sheet1!C:C,Actist!A6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(Sheet1!C:C,Actist!A7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(Sheet1!C:C,Actist!A8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(Sheet1!C:C,Actist!A9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(Sheet1!C:C,Actist!A10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(Sheet1!C:C,Actist!A11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(Sheet1!C:C,Actist!A12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF(Sheet1!C:C,Actist!A13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF(Sheet1!C:C,Actist!A14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(Sheet1!C:C,Actist!A15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIF(Sheet1!C:C,Actist!A16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF(Sheet1!C:C,Actist!A17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF(Sheet1!C:C,Actist!A18)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIF(Sheet1!C:C,Actist!A19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(Sheet1!C:C,Actist!A20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF(Sheet1!C:C,Actist!A21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF(Sheet1!C:C,Actist!A22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIF(Sheet1!C:C,Actist!A23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(Sheet1!C:C,Actist!A24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(Sheet1!C:C,Actist!A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(Sheet1!C:C,Actist!A26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF(Sheet1!C:C,Actist!A27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(Sheet1!C:C,Actist!A28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIF(Sheet1!C:C,Actist!A29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIF(Sheet1!C:C,Actist!A30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIF(Sheet1!C:C,Actist!A31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32">
+        <f>COUNTIF(Sheet1!C:C,Actist!A32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33">
+        <f>COUNTIF(Sheet1!C:C,Actist!A33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIF(Sheet1!C:C,Actist!A34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIF(Sheet1!C:C,Actist!A35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIF(Sheet1!C:C,Actist!A36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIF(Sheet1!C:C,Actist!A37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38">
+        <f>COUNTIF(Sheet1!C:C,Actist!A38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39">
+        <f>COUNTIF(Sheet1!C:C,Actist!A39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40">
+        <f>COUNTIF(Sheet1!C:C,Actist!A40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41">
+        <f>COUNTIF(Sheet1!C:C,Actist!A41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42">
+        <f>COUNTIF(Sheet1!C:C,Actist!A42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43">
+        <f>COUNTIF(Sheet1!C:C,Actist!A43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44">
+        <f>COUNTIF(Sheet1!C:C,Actist!A44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45">
+        <f>COUNTIF(Sheet1!C:C,Actist!A45)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A20C9F-3838-5C45-BE7E-D2932B82D090}">
   <dimension ref="A1:C61"/>
   <sheetViews>
@@ -3082,383 +3844,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E27B8E-0EF2-2C44-A3EB-1FF36BA301A1}">
-  <dimension ref="A1:B45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="68.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>239</v>
-      </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>244</v>
-      </c>
-      <c r="B39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>246</v>
-      </c>
-      <c r="B41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>247</v>
-      </c>
-      <c r="B42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>249</v>
-      </c>
-      <c r="B44" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/paintings_data.xlsx
+++ b/paintings_data.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tandanny/Desktop/java-courses/artist_project/artist_back_end/artist_back_end/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2A057-B47E-ED4B-B959-23E18966C6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0F10FD-BBF2-5C45-B8E5-F5FC3EA9E950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plantings" sheetId="1" r:id="rId1"/>
     <sheet name="Actist" sheetId="2" r:id="rId2"/>
-    <sheet name="picture" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="314">
   <si>
     <t>畫作名稱</t>
   </si>
@@ -1355,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2600,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E27B8E-0EF2-2C44-A3EB-1FF36BA301A1}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2628,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>COUNTIF(Sheet1!C:C,Actist!A2)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A2)</f>
         <v>4</v>
       </c>
     </row>
@@ -2640,7 +2639,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <f>COUNTIF(Sheet1!C:C,Actist!A3)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A3)</f>
         <v>2</v>
       </c>
     </row>
@@ -2652,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <f>COUNTIF(Sheet1!C:C,Actist!A4)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -2664,7 +2663,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <f>COUNTIF(Sheet1!C:C,Actist!A5)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A5)</f>
         <v>3</v>
       </c>
     </row>
@@ -2676,7 +2675,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <f>COUNTIF(Sheet1!C:C,Actist!A6)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -2688,7 +2687,7 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <f>COUNTIF(Sheet1!C:C,Actist!A7)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A7)</f>
         <v>2</v>
       </c>
     </row>
@@ -2700,7 +2699,7 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <f>COUNTIF(Sheet1!C:C,Actist!A8)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -2712,7 +2711,7 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <f>COUNTIF(Sheet1!C:C,Actist!A9)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A9)</f>
         <v>3</v>
       </c>
     </row>
@@ -2724,7 +2723,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <f>COUNTIF(Sheet1!C:C,Actist!A10)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A10)</f>
         <v>1</v>
       </c>
     </row>
@@ -2736,7 +2735,7 @@
         <v>39</v>
       </c>
       <c r="C11">
-        <f>COUNTIF(Sheet1!C:C,Actist!A11)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A11)</f>
         <v>1</v>
       </c>
     </row>
@@ -2748,7 +2747,7 @@
         <v>43</v>
       </c>
       <c r="C12">
-        <f>COUNTIF(Sheet1!C:C,Actist!A12)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A12)</f>
         <v>1</v>
       </c>
     </row>
@@ -2760,7 +2759,7 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <f>COUNTIF(Sheet1!C:C,Actist!A13)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A13)</f>
         <v>4</v>
       </c>
     </row>
@@ -2772,7 +2771,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <f>COUNTIF(Sheet1!C:C,Actist!A14)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -2784,7 +2783,7 @@
         <v>55</v>
       </c>
       <c r="C15">
-        <f>COUNTIF(Sheet1!C:C,Actist!A15)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -2796,7 +2795,7 @@
         <v>59</v>
       </c>
       <c r="C16">
-        <f>COUNTIF(Sheet1!C:C,Actist!A16)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A16)</f>
         <v>1</v>
       </c>
     </row>
@@ -2808,7 +2807,7 @@
         <v>61</v>
       </c>
       <c r="C17">
-        <f>COUNTIF(Sheet1!C:C,Actist!A17)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -2820,7 +2819,7 @@
         <v>63</v>
       </c>
       <c r="C18">
-        <f>COUNTIF(Sheet1!C:C,Actist!A18)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A18)</f>
         <v>4</v>
       </c>
     </row>
@@ -2832,7 +2831,7 @@
         <v>67</v>
       </c>
       <c r="C19">
-        <f>COUNTIF(Sheet1!C:C,Actist!A19)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A19)</f>
         <v>1</v>
       </c>
     </row>
@@ -2844,7 +2843,7 @@
         <v>74</v>
       </c>
       <c r="C20">
-        <f>COUNTIF(Sheet1!C:C,Actist!A20)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A20)</f>
         <v>1</v>
       </c>
     </row>
@@ -2856,7 +2855,7 @@
         <v>81</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(Sheet1!C:C,Actist!A21)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A21)</f>
         <v>1</v>
       </c>
     </row>
@@ -2868,7 +2867,7 @@
         <v>88</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(Sheet1!C:C,Actist!A22)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A22)</f>
         <v>1</v>
       </c>
     </row>
@@ -2880,7 +2879,7 @@
         <v>98</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(Sheet1!C:C,Actist!A23)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A23)</f>
         <v>1</v>
       </c>
     </row>
@@ -2892,7 +2891,7 @@
         <v>102</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(Sheet1!C:C,Actist!A24)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -2904,7 +2903,7 @@
         <v>106</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(Sheet1!C:C,Actist!A25)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -2916,7 +2915,7 @@
         <v>110</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(Sheet1!C:C,Actist!A26)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A26)</f>
         <v>1</v>
       </c>
     </row>
@@ -2928,7 +2927,7 @@
         <v>120</v>
       </c>
       <c r="C27">
-        <f>COUNTIF(Sheet1!C:C,Actist!A27)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A27)</f>
         <v>1</v>
       </c>
     </row>
@@ -2940,7 +2939,7 @@
         <v>124</v>
       </c>
       <c r="C28">
-        <f>COUNTIF(Sheet1!C:C,Actist!A28)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A28)</f>
         <v>2</v>
       </c>
     </row>
@@ -2952,7 +2951,7 @@
         <v>129</v>
       </c>
       <c r="C29">
-        <f>COUNTIF(Sheet1!C:C,Actist!A29)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A29)</f>
         <v>1</v>
       </c>
     </row>
@@ -2964,7 +2963,7 @@
         <v>133</v>
       </c>
       <c r="C30">
-        <f>COUNTIF(Sheet1!C:C,Actist!A30)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A30)</f>
         <v>1</v>
       </c>
     </row>
@@ -2976,7 +2975,7 @@
         <v>146</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(Sheet1!C:C,Actist!A31)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A31)</f>
         <v>1</v>
       </c>
     </row>
@@ -2988,7 +2987,7 @@
         <v>150</v>
       </c>
       <c r="C32">
-        <f>COUNTIF(Sheet1!C:C,Actist!A32)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A32)</f>
         <v>1</v>
       </c>
     </row>
@@ -3000,7 +2999,7 @@
         <v>154</v>
       </c>
       <c r="C33">
-        <f>COUNTIF(Sheet1!C:C,Actist!A33)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A33)</f>
         <v>1</v>
       </c>
     </row>
@@ -3012,7 +3011,7 @@
         <v>158</v>
       </c>
       <c r="C34">
-        <f>COUNTIF(Sheet1!C:C,Actist!A34)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -3024,7 +3023,7 @@
         <v>160</v>
       </c>
       <c r="C35">
-        <f>COUNTIF(Sheet1!C:C,Actist!A35)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A35)</f>
         <v>1</v>
       </c>
     </row>
@@ -3036,7 +3035,7 @@
         <v>162</v>
       </c>
       <c r="C36">
-        <f>COUNTIF(Sheet1!C:C,Actist!A36)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A36)</f>
         <v>1</v>
       </c>
     </row>
@@ -3048,7 +3047,7 @@
         <v>164</v>
       </c>
       <c r="C37">
-        <f>COUNTIF(Sheet1!C:C,Actist!A37)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A37)</f>
         <v>1</v>
       </c>
     </row>
@@ -3060,7 +3059,7 @@
         <v>168</v>
       </c>
       <c r="C38">
-        <f>COUNTIF(Sheet1!C:C,Actist!A38)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A38)</f>
         <v>1</v>
       </c>
     </row>
@@ -3072,7 +3071,7 @@
         <v>172</v>
       </c>
       <c r="C39">
-        <f>COUNTIF(Sheet1!C:C,Actist!A39)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A39)</f>
         <v>1</v>
       </c>
     </row>
@@ -3084,7 +3083,7 @@
         <v>179</v>
       </c>
       <c r="C40">
-        <f>COUNTIF(Sheet1!C:C,Actist!A40)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A40)</f>
         <v>1</v>
       </c>
     </row>
@@ -3096,7 +3095,7 @@
         <v>189</v>
       </c>
       <c r="C41">
-        <f>COUNTIF(Sheet1!C:C,Actist!A41)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A41)</f>
         <v>1</v>
       </c>
     </row>
@@ -3108,7 +3107,7 @@
         <v>195</v>
       </c>
       <c r="C42">
-        <f>COUNTIF(Sheet1!C:C,Actist!A42)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A42)</f>
         <v>1</v>
       </c>
     </row>
@@ -3120,7 +3119,7 @@
         <v>197</v>
       </c>
       <c r="C43">
-        <f>COUNTIF(Sheet1!C:C,Actist!A43)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A43)</f>
         <v>1</v>
       </c>
     </row>
@@ -3132,7 +3131,7 @@
         <v>199</v>
       </c>
       <c r="C44">
-        <f>COUNTIF(Sheet1!C:C,Actist!A44)</f>
+        <f>COUNTIF(Plantings!C:C,Actist!A44)</f>
         <v>1</v>
       </c>
     </row>
@@ -3144,700 +3143,8 @@
         <v>203</v>
       </c>
       <c r="C45">
-        <f>COUNTIF(Sheet1!C:C,Actist!A45)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A20C9F-3838-5C45-BE7E-D2932B82D090}">
-  <dimension ref="A1:C61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="9"/>
-    <col min="2" max="2" width="177.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="158.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>272</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>276</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>278</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>280</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>282</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>283</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>284</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>285</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>286</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>288</v>
-      </c>
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>289</v>
-      </c>
-      <c r="B39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>290</v>
-      </c>
-      <c r="B40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>291</v>
-      </c>
-      <c r="B41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>293</v>
-      </c>
-      <c r="B43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>294</v>
-      </c>
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>295</v>
-      </c>
-      <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>296</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>297</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>298</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>299</v>
-      </c>
-      <c r="B49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>301</v>
-      </c>
-      <c r="B51" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>302</v>
-      </c>
-      <c r="B52" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>303</v>
-      </c>
-      <c r="B53" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>304</v>
-      </c>
-      <c r="B54" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>305</v>
-      </c>
-      <c r="B55" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>306</v>
-      </c>
-      <c r="B56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>307</v>
-      </c>
-      <c r="B57" t="s">
-        <v>193</v>
-      </c>
-      <c r="C57" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>308</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>309</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>310</v>
-      </c>
-      <c r="B60" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>311</v>
-      </c>
-      <c r="B61" t="s">
-        <v>204</v>
-      </c>
-      <c r="C61" t="s">
-        <v>205</v>
+        <f>COUNTIF(Plantings!C:C,Actist!A45)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/paintings_data.xlsx
+++ b/paintings_data.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tandanny/Desktop/java-courses/artist_project/artist_back_end/artist_back_end/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0F10FD-BBF2-5C45-B8E5-F5FC3EA9E950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="528" windowWidth="21792" windowHeight="8796"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plantings" sheetId="1" r:id="rId1"/>
+    <sheet name="Actist" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="314">
   <si>
     <t>畫作名稱</t>
   </si>
@@ -632,13 +652,342 @@
   </si>
   <si>
     <t>https://uploads2.wikiart.org/images/mark-rothko/orange-and-yellow(1).jpg</t>
+  </si>
+  <si>
+    <t>Actist_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0002</t>
+  </si>
+  <si>
+    <t>A0003</t>
+  </si>
+  <si>
+    <t>A0004</t>
+  </si>
+  <si>
+    <t>A0005</t>
+  </si>
+  <si>
+    <t>A0006</t>
+  </si>
+  <si>
+    <t>A0007</t>
+  </si>
+  <si>
+    <t>A0008</t>
+  </si>
+  <si>
+    <t>A0009</t>
+  </si>
+  <si>
+    <t>A0010</t>
+  </si>
+  <si>
+    <t>A0011</t>
+  </si>
+  <si>
+    <t>A0012</t>
+  </si>
+  <si>
+    <t>A0013</t>
+  </si>
+  <si>
+    <t>A0014</t>
+  </si>
+  <si>
+    <t>A0015</t>
+  </si>
+  <si>
+    <t>A0016</t>
+  </si>
+  <si>
+    <t>A0017</t>
+  </si>
+  <si>
+    <t>A0018</t>
+  </si>
+  <si>
+    <t>A0019</t>
+  </si>
+  <si>
+    <t>A0020</t>
+  </si>
+  <si>
+    <t>A0021</t>
+  </si>
+  <si>
+    <t>A0022</t>
+  </si>
+  <si>
+    <t>A0023</t>
+  </si>
+  <si>
+    <t>A0024</t>
+  </si>
+  <si>
+    <t>A0025</t>
+  </si>
+  <si>
+    <t>A0026</t>
+  </si>
+  <si>
+    <t>A0027</t>
+  </si>
+  <si>
+    <t>A0028</t>
+  </si>
+  <si>
+    <t>A0029</t>
+  </si>
+  <si>
+    <t>A0030</t>
+  </si>
+  <si>
+    <t>A0031</t>
+  </si>
+  <si>
+    <t>A0032</t>
+  </si>
+  <si>
+    <t>A0033</t>
+  </si>
+  <si>
+    <t>A0034</t>
+  </si>
+  <si>
+    <t>A0035</t>
+  </si>
+  <si>
+    <t>A0036</t>
+  </si>
+  <si>
+    <t>A0037</t>
+  </si>
+  <si>
+    <t>A0038</t>
+  </si>
+  <si>
+    <t>A0039</t>
+  </si>
+  <si>
+    <t>A0040</t>
+  </si>
+  <si>
+    <t>A0041</t>
+  </si>
+  <si>
+    <t>A0042</t>
+  </si>
+  <si>
+    <t>A0043</t>
+  </si>
+  <si>
+    <t>A0044</t>
+  </si>
+  <si>
+    <t>Product_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>P022</t>
+  </si>
+  <si>
+    <t>P023</t>
+  </si>
+  <si>
+    <t>P024</t>
+  </si>
+  <si>
+    <t>P025</t>
+  </si>
+  <si>
+    <t>P026</t>
+  </si>
+  <si>
+    <t>P027</t>
+  </si>
+  <si>
+    <t>P028</t>
+  </si>
+  <si>
+    <t>P029</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>P031</t>
+  </si>
+  <si>
+    <t>P032</t>
+  </si>
+  <si>
+    <t>P033</t>
+  </si>
+  <si>
+    <t>P034</t>
+  </si>
+  <si>
+    <t>P035</t>
+  </si>
+  <si>
+    <t>P036</t>
+  </si>
+  <si>
+    <t>P037</t>
+  </si>
+  <si>
+    <t>P038</t>
+  </si>
+  <si>
+    <t>P039</t>
+  </si>
+  <si>
+    <t>P040</t>
+  </si>
+  <si>
+    <t>P041</t>
+  </si>
+  <si>
+    <t>P042</t>
+  </si>
+  <si>
+    <t>P043</t>
+  </si>
+  <si>
+    <t>P044</t>
+  </si>
+  <si>
+    <t>P045</t>
+  </si>
+  <si>
+    <t>P046</t>
+  </si>
+  <si>
+    <t>P047</t>
+  </si>
+  <si>
+    <t>P048</t>
+  </si>
+  <si>
+    <t>P049</t>
+  </si>
+  <si>
+    <t>P050</t>
+  </si>
+  <si>
+    <t>P051</t>
+  </si>
+  <si>
+    <t>P052</t>
+  </si>
+  <si>
+    <t>P053</t>
+  </si>
+  <si>
+    <t>P054</t>
+  </si>
+  <si>
+    <t>P055</t>
+  </si>
+  <si>
+    <t>P056</t>
+  </si>
+  <si>
+    <t>P057</t>
+  </si>
+  <si>
+    <t>P058</t>
+  </si>
+  <si>
+    <t>P059</t>
+  </si>
+  <si>
+    <t>P060</t>
+  </si>
+  <si>
+    <t>A0001</t>
+  </si>
+  <si>
+    <t>作品數量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +1059,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -999,872 +1351,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="85.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="177.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="158.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="68.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="177.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="158.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>82</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" t="s">
         <v>91</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" t="s">
         <v>94</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>99</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>103</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" t="s">
         <v>106</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>107</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>111</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" t="s">
         <v>113</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" t="s">
         <v>116</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" t="s">
         <v>17</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>117</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" t="s">
         <v>119</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" t="s">
         <v>120</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>121</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" t="s">
         <v>123</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>18</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>126</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" t="s">
         <v>129</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>130</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" t="s">
         <v>132</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" t="s">
         <v>133</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>134</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" t="s">
         <v>136</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" t="s">
         <v>47</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>137</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" t="s">
         <v>139</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>140</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" t="s">
         <v>142</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>143</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" t="s">
         <v>145</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" t="s">
         <v>146</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>147</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" t="s">
         <v>149</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>151</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" t="s">
         <v>153</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" t="s">
         <v>154</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>155</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" t="s">
         <v>157</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" t="s">
         <v>158</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>18</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" t="s">
         <v>159</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
         <v>160</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>18</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" t="s">
         <v>161</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
         <v>162</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>18</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" t="s">
         <v>163</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" t="s">
         <v>164</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>165</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" t="s">
         <v>167</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" t="s">
         <v>168</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>169</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
         <v>171</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" t="s">
         <v>172</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>173</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" t="s">
         <v>175</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" t="s">
         <v>63</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>176</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" t="s">
         <v>178</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" t="s">
         <v>179</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>180</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>304</v>
+      </c>
+      <c r="B54" t="s">
         <v>182</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" t="s">
         <v>124</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>183</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" t="s">
         <v>185</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>186</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" t="s">
         <v>188</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" t="s">
         <v>189</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>190</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" t="s">
         <v>192</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
         <v>63</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>193</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" t="s">
         <v>119</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" t="s">
         <v>195</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>18</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" t="s">
         <v>196</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" t="s">
         <v>197</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>18</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
         <v>198</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" t="s">
         <v>199</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>200</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61" t="s">
         <v>202</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" t="s">
         <v>203</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>204</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1873,4 +2593,562 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E27B8E-0EF2-2C44-A3EB-1FF36BA301A1}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="68.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF(Plantings!C:C,Actist!A2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF(Plantings!C:C,Actist!A3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(Plantings!C:C,Actist!A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(Plantings!C:C,Actist!A5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(Plantings!C:C,Actist!A6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(Plantings!C:C,Actist!A7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(Plantings!C:C,Actist!A8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(Plantings!C:C,Actist!A9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(Plantings!C:C,Actist!A10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(Plantings!C:C,Actist!A11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(Plantings!C:C,Actist!A12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF(Plantings!C:C,Actist!A13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF(Plantings!C:C,Actist!A14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(Plantings!C:C,Actist!A15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIF(Plantings!C:C,Actist!A16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF(Plantings!C:C,Actist!A17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF(Plantings!C:C,Actist!A18)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIF(Plantings!C:C,Actist!A19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(Plantings!C:C,Actist!A20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF(Plantings!C:C,Actist!A21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF(Plantings!C:C,Actist!A22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIF(Plantings!C:C,Actist!A23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(Plantings!C:C,Actist!A24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(Plantings!C:C,Actist!A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(Plantings!C:C,Actist!A26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF(Plantings!C:C,Actist!A27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(Plantings!C:C,Actist!A28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIF(Plantings!C:C,Actist!A29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIF(Plantings!C:C,Actist!A30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIF(Plantings!C:C,Actist!A31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32">
+        <f>COUNTIF(Plantings!C:C,Actist!A32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33">
+        <f>COUNTIF(Plantings!C:C,Actist!A33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIF(Plantings!C:C,Actist!A34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIF(Plantings!C:C,Actist!A35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIF(Plantings!C:C,Actist!A36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIF(Plantings!C:C,Actist!A37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38">
+        <f>COUNTIF(Plantings!C:C,Actist!A38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39">
+        <f>COUNTIF(Plantings!C:C,Actist!A39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40">
+        <f>COUNTIF(Plantings!C:C,Actist!A40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41">
+        <f>COUNTIF(Plantings!C:C,Actist!A41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42">
+        <f>COUNTIF(Plantings!C:C,Actist!A42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43">
+        <f>COUNTIF(Plantings!C:C,Actist!A43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44">
+        <f>COUNTIF(Plantings!C:C,Actist!A44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45">
+        <f>COUNTIF(Plantings!C:C,Actist!A45)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>